--- a/Ocean_at/config/config.xlsx
+++ b/Ocean_at/config/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Ocean_at\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3431ACA9-8FC6-42B1-AD1F-2AED5806E35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AD070-E190-4821-A722-DB64A6447A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A767EC56-ADA2-4890-9CDA-8B07653CE149}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,20 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="19"/>
+      <color rgb="FFB70E0E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,9 +127,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -434,7 +450,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30.6" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -470,11 +486,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1545281551730</v>
-      </c>
-      <c r="E2">
-        <v>8930836</v>
+      <c r="D2" s="3">
+        <v>1313774205472</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9599553</v>
       </c>
     </row>
   </sheetData>

--- a/Ocean_at/config/config.xlsx
+++ b/Ocean_at/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Ocean_at\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oceanmain\Ocean_at\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AD070-E190-4821-A722-DB64A6447A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E332B6A-8313-4395-9E51-0DEDC24E2AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A767EC56-ADA2-4890-9CDA-8B07653CE149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A767EC56-ADA2-4890-9CDA-8B07653CE149}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>คำนำหน้า</t>
   </si>
@@ -51,13 +51,31 @@
     <t>นาย</t>
   </si>
   <si>
-    <t>สมคิด</t>
-  </si>
-  <si>
-    <t>ออโต้</t>
-  </si>
-  <si>
     <t>เลขคำขอ</t>
+  </si>
+  <si>
+    <t>ตัวแทน</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>ชื่อแบบประกัน</t>
+  </si>
+  <si>
+    <t>แจ็ค</t>
+  </si>
+  <si>
+    <t>แบคโฮ</t>
+  </si>
+  <si>
+    <t>5901046: น.ส.สี่โอ เอชไอ</t>
+  </si>
+  <si>
+    <t>E70 โอเชี่ยนไลฟ์ สมาร์ท โพรเทคชั่น 99/99</t>
   </si>
 </sst>
 </file>
@@ -83,26 +101,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
-      <sz val="19"/>
+      <sz val="24"/>
       <color rgb="FFB70E0E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,11 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -447,50 +472,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9629FF-A710-4DB9-ADF7-9872DC469D9A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.6" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="38.25" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1313774205472</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1138618261219</v>
       </c>
       <c r="E2" s="2">
-        <v>9599553</v>
+        <v>9598724</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
